--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Programación 1\Proyecto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Programación 1\Proyecto 1\Detalles\Planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,17 +149,17 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,37 +453,37 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -499,11 +499,11 @@
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -519,11 +519,11 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -539,11 +539,11 @@
       <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -552,11 +552,11 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>10</v>
@@ -567,9 +567,12 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+      <c r="G8" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>11</v>
@@ -580,9 +583,9 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>12</v>
@@ -593,20 +596,20 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>10</v>
@@ -617,9 +620,12 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>11</v>
@@ -630,9 +636,9 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>12</v>
@@ -643,9 +649,9 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>6</v>
       </c>
@@ -658,11 +664,14 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>10</v>
@@ -673,9 +682,10 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>11</v>
@@ -686,9 +696,9 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" t="s">
         <v>12</v>
@@ -699,9 +709,9 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>7</v>
       </c>
@@ -714,11 +724,14 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>10</v>
@@ -729,9 +742,9 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>11</v>
@@ -742,9 +755,9 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>12</v>
@@ -755,9 +768,9 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>8</v>
       </c>
@@ -770,11 +783,14 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>10</v>
@@ -785,9 +801,9 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>11</v>
@@ -798,9 +814,9 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -811,9 +827,9 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>9</v>
       </c>
@@ -826,11 +842,11 @@
       <c r="E27" s="2">
         <v>43877</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -849,16 +865,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -865,16 +865,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -152,12 +152,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,34 +454,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -552,7 +552,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4">
         <v>0.95</v>
       </c>
@@ -583,7 +583,7 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -596,7 +596,7 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -605,7 +605,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -620,7 +620,7 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="4">
         <v>0.95</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -649,7 +649,7 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -664,11 +664,8 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -682,7 +679,10 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4">
+        <v>0.95</v>
+      </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -709,7 +709,7 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -724,11 +724,8 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -742,7 +739,10 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -755,7 +755,10 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -768,7 +771,7 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -783,11 +786,8 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -801,7 +801,10 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -814,7 +817,7 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -827,7 +830,7 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
@@ -865,16 +868,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -152,12 +152,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,34 +454,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -552,7 +552,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="4">
         <v>0.95</v>
       </c>
@@ -583,7 +583,7 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -596,7 +596,7 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -605,7 +605,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -620,7 +620,7 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="4">
         <v>0.95</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -649,7 +649,7 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -664,7 +664,7 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -679,7 +679,7 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="4">
         <v>0.95</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -709,7 +709,7 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -724,7 +724,7 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="4">
         <v>0.95</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="4">
         <v>0.05</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -786,7 +786,7 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -801,7 +801,7 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="4">
         <v>0.95</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -830,7 +830,7 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
@@ -868,16 +868,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -152,12 +152,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,34 +454,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -520,7 +520,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -567,9 +567,9 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -596,7 +596,7 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -605,7 +605,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -620,9 +620,9 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -649,7 +649,7 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -664,7 +664,7 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -679,9 +679,9 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -696,7 +696,7 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -709,7 +709,7 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -724,7 +724,7 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -739,9 +739,9 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="4">
         <v>0.05</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -786,7 +786,7 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -801,9 +801,9 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -817,7 +817,8 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -830,7 +831,7 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
@@ -868,16 +869,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -152,12 +152,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +443,7 @@
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,34 +454,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -552,7 +552,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
@@ -583,7 +583,7 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -596,7 +596,7 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -605,7 +605,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -620,7 +620,7 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -649,7 +649,7 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -664,7 +664,7 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -679,7 +679,7 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -709,7 +709,7 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -724,7 +724,7 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="4">
         <v>1</v>
       </c>
@@ -755,9 +755,9 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -786,7 +786,7 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -801,7 +801,7 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="4">
         <v>1</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
@@ -869,16 +869,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,10 +146,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,17 +160,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,34 +464,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -552,7 +562,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -567,7 +577,7 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
@@ -583,7 +593,10 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -596,7 +609,10 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -605,7 +621,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -620,7 +636,7 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
@@ -636,7 +652,10 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -649,7 +668,10 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -664,7 +686,7 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -679,7 +701,7 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
@@ -696,7 +718,10 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -709,7 +734,10 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -724,7 +752,7 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -739,7 +767,7 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="4">
         <v>1</v>
       </c>
@@ -755,9 +783,9 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -771,7 +799,10 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -786,7 +817,7 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -801,7 +832,7 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="4">
         <v>1</v>
       </c>
@@ -817,8 +848,10 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -831,7 +864,10 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
@@ -849,6 +885,9 @@
       <c r="F27" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
@@ -866,19 +905,22 @@
       <c r="F28" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -159,16 +159,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -464,34 +464,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -562,7 +562,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -577,7 +577,7 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="4">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="4">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="4">
         <v>1</v>
       </c>
@@ -799,8 +799,8 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9">
+      <c r="F22" s="9"/>
+      <c r="G22" s="6">
         <v>0.25</v>
       </c>
     </row>
@@ -817,7 +817,7 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="4">
         <v>1</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="4">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="4">
         <v>0</v>
       </c>
@@ -911,16 +911,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -161,12 +161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,34 +464,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -562,7 +562,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -577,7 +577,7 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="4">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="4">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
@@ -652,9 +652,9 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="4">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="4">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="4">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="4">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="4">
         <v>1</v>
       </c>
@@ -799,9 +799,9 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="6">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="4">
         <v>1</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="4">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="4">
         <v>0</v>
       </c>
@@ -911,16 +911,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -161,12 +161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,34 +464,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -562,7 +562,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -577,7 +577,7 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="4">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4">
         <v>1</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="4">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="4">
         <v>1</v>
       </c>
@@ -799,9 +799,9 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="4">
         <v>1</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="4">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="4">
         <v>0</v>
       </c>
@@ -911,16 +911,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detalles/Planificacion/Planificacion.xlsx
+++ b/Detalles/Planificacion/Planificacion.xlsx
@@ -161,12 +161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,34 +464,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -562,7 +562,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -577,7 +577,7 @@
       <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
@@ -593,9 +593,9 @@
       <c r="E9" s="2">
         <v>43870</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -609,9 +609,9 @@
       <c r="E10" s="2">
         <v>43875</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="E12" s="2">
         <v>43868</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="E13" s="2">
         <v>43870</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="4">
         <v>1</v>
       </c>
@@ -668,9 +668,9 @@
       <c r="E14" s="2">
         <v>43875</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
       <c r="E15" s="2">
         <v>43868</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="E16" s="2">
         <v>43868</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
@@ -718,9 +718,9 @@
       <c r="E17" s="2">
         <v>43870</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -734,9 +734,9 @@
       <c r="E18" s="2">
         <v>43875</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
       <c r="E19" s="2">
         <v>43868</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
       <c r="E20" s="2">
         <v>43868</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="4">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="4">
         <v>1</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="E22" s="2">
         <v>43875</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="E23" s="2">
         <v>43868</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="E24" s="2">
         <v>43868</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="4">
         <v>1</v>
       </c>
@@ -848,9 +848,9 @@
       <c r="E25" s="2">
         <v>43870</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -864,9 +864,9 @@
       <c r="E26" s="2">
         <v>43875</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -906,21 +906,21 @@
         <v>15</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
